--- a/delivery_orders_2026.xlsx
+++ b/delivery_orders_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enjoy\Python_AI\202601월강의\탁송앱\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B6960-D8E0-4F1A-B85B-E97DE46A1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E28DFC2-6571-42BA-90CE-E40A7C32E94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="555" windowWidth="19635" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="1590" windowWidth="21915" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5714" uniqueCount="3579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5715" uniqueCount="3580">
   <si>
     <t>인덱스</t>
   </si>
@@ -10763,6 +10763,10 @@
   </si>
   <si>
     <t>출발시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11147,7 +11151,7 @@
   <dimension ref="A1:J818"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11157,7 +11161,7 @@
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
@@ -11191,7 +11195,9 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>3579</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
